--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_011.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_011.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295019AK2.02) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water</t>
-  </si>
-  <si>
-    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
-  </si>
-  <si>
-    <t>(295023AA2.03) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Airborne contamination levels</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295006AK2.04) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) Turbine trip logic</t>
-  </si>
-  <si>
-    <t>(295003AA1.03) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295016AK2.14) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Cooling water systems</t>
-  </si>
-  <si>
-    <t>(295024EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell flooding</t>
-  </si>
-  <si>
-    <t>(600000AA2.16) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Vital equipment and control systems to be maintained and operated during a fire</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295031EK2.03) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Low-pressure core spray</t>
-  </si>
-  <si>
-    <t>(295021AA1.04) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Alternate decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295027EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Reactor water level measurement</t>
-  </si>
-  <si>
-    <t>(295038EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295005AK2.07) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295004AA1.02) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) Systems necessary to ensure safe plant shutdown</t>
-  </si>
-  <si>
-    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
-  </si>
-  <si>
-    <t>(295030EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Suppression pool makeup system(s) operation</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295032EK2.03) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Fire protection system</t>
-  </si>
-  <si>
-    <t>(295009AA1.02) Ability to operate and/or monitor the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water level control</t>
-  </si>
-  <si>
-    <t>(295013AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Surveillance testing</t>
-  </si>
-  <si>
-    <t>(295010AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Increased drywell cooling</t>
-  </si>
-  <si>
-    <t>(295014AA2.06) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cold water injection</t>
-  </si>
-  <si>
-    <t>(239002A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(223002A2.01) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) AC electrical distribution failures</t>
-  </si>
-  <si>
-    <t>(209001K4.01) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of overpressurization of core spray piping</t>
-  </si>
-  <si>
-    <t>(211000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) AC power</t>
-  </si>
-  <si>
-    <t>(217000K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(263000A4.05) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Meters, dials, recorders, alarms, and indicating lights</t>
-  </si>
-  <si>
-    <t>(205000K2.01) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pump motors</t>
-  </si>
-  <si>
-    <t>(215005K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) Effects of voids on LPRM indication</t>
-  </si>
-  <si>
-    <t>(261000A3.03) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) Valve/damper operation</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(215003K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(264000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Emergency generator room temperature</t>
-  </si>
-  <si>
-    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
-  </si>
-  <si>
-    <t>(259002K4.08) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) TDRFP speed control</t>
-  </si>
-  <si>
-    <t>(212000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>(400000K3.06) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Recirculation system</t>
-  </si>
-  <si>
-    <t>(209002A4.07) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill pump</t>
-  </si>
-  <si>
-    <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
-  </si>
-  <si>
-    <t>(203000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Core cooling methods</t>
-  </si>
-  <si>
-    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (291001K1.02) VALVES (CFR: 41.3) The function and operation of relief valves</t>
-  </si>
-  <si>
-    <t>(262001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(239002A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Reactor water level</t>
-  </si>
-  <si>
-    <t>(223002A2.09) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Inadvertent system initiation</t>
-  </si>
-  <si>
-    <t>(209001K4.02) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevents water hammer</t>
-  </si>
-  <si>
-    <t>(211000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Core spray system</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(259001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 FWS) FEEDWATER SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) HPCI</t>
-  </si>
-  <si>
-    <t>(290001A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.5 / 45.5) System indicating lights and alarms</t>
-  </si>
-  <si>
-    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
-  </si>
-  <si>
-    <t>(245000K4.06) Knowledge of (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Generator protection</t>
-  </si>
-  <si>
-    <t>(215001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(271000K3.04) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Hydrogen concentration</t>
-  </si>
-  <si>
-    <t>(234000A4.01) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Neutron monitoring system</t>
-  </si>
-  <si>
-    <t>(272000K2.06) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Area radiation monitors</t>
-  </si>
-  <si>
-    <t>(201001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.5-7 / 41.10 / 45.1-6 / 45.12-13) Pump operation</t>
-  </si>
-  <si>
-    <t>(290002K3.20) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) SRV system</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295018AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Starting the standby pump</t>
+  </si>
+  <si>
+    <t>(295026EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
+  </si>
+  <si>
+    <t>(700000AK2.07) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295019AK2.14) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Plant air systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295001AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Idle loop/reverse flow</t>
+  </si>
+  <si>
+    <t>(295021AA1.05) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Reactor recirculation</t>
+  </si>
+  <si>
+    <t>(600000AK2.11) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Gas treatment system</t>
+  </si>
+  <si>
+    <t>(295006AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Decay heat generation and removal</t>
+  </si>
+  <si>
+    <t>(295037EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(295030EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295005AA1.07) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295031EK2.13) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) ARI/RPT/ATWS</t>
+  </si>
+  <si>
+    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
+  </si>
+  <si>
+    <t>(295024EA2.12) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295033EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Systems required to suppress a fire</t>
+  </si>
+  <si>
+    <t>(295036EK2.01) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Equipment and floor drain sumps and pumps</t>
+  </si>
+  <si>
+    <t>(295013AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Localized heating</t>
+  </si>
+  <si>
+    <t>(295010AA2.06) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
+  </si>
+  <si>
+    <t>(209002A4.02) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Suction valves</t>
+  </si>
+  <si>
+    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
+  </si>
+  <si>
+    <t>(262001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Breaker malfunctions</t>
+  </si>
+  <si>
+    <t>(400000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW temperature</t>
+  </si>
+  <si>
+    <t>(205000K4.08) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Prevent inadvertent vessel draining</t>
+  </si>
+  <si>
+    <t>(262002K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Feedwater system</t>
+  </si>
+  <si>
+    <t>(264000A3.07) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Room ventilation system</t>
+  </si>
+  <si>
+    <t>(217000A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Rupture disc failure: exhaust-diaphragm</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Display control system</t>
+  </si>
+  <si>
+    <t>(261000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Heat removal mechanisms</t>
+  </si>
+  <si>
+    <t>(215004A4.08) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS channel bypass</t>
+  </si>
+  <si>
+    <t>(203000K2.02) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
+  </si>
+  <si>
+    <t>(259002K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Reactor pressure/temperature input (for water level input compensation)</t>
+  </si>
+  <si>
+    <t>(223002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(218000K4.04) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Ensure adequate pneumatic supply to ADS valves</t>
+  </si>
+  <si>
+    <t>(239002K3.05) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool</t>
+  </si>
+  <si>
+    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
+  </si>
+  <si>
+    <t>(209001A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC failures</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (291002K1.03) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Effects of gas or steam on liquid flow rate indications (erroneous reading)</t>
+  </si>
+  <si>
+    <t>(510000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Emergency generators (diesel/jet)</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(209002A4.03) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Injection valve</t>
+  </si>
+  <si>
+    <t>(211000K2.03) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Heater power</t>
+  </si>
+  <si>
+    <t>(262001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Offsite power</t>
+  </si>
+  <si>
+    <t>(400000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) Surge tank level</t>
+  </si>
+  <si>
+    <t>(245000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(201003K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) How control rods affect shutdown margin</t>
+  </si>
+  <si>
+    <t>(259001A4.03) Ability to manually operate and/or monitor the (SF2 FWS) FEEDWATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Feedwater heater/drain controls</t>
+  </si>
+  <si>
+    <t>(201001K2.04) (SF1 CRDH) CRD HYDRAULIC SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SCRAM discharge volume vent and drain valve solenoids</t>
+  </si>
+  <si>
+    <t>(202002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.7 / 45.7) Feedwater flow inputs (BWR 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(241000A1.14) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.5 / 45.5) Pressure setpoint/pressure demand</t>
+  </si>
+  <si>
+    <t>(201005K4.03) Knowledge of (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) design features and/or interlocks that provide for the following: (CFR: 41.5 to 41.7) Rod withdrawal block signals</t>
+  </si>
+  <si>
+    <t>(216000K3.27) Knowledge of the effect that a loss or malfunction of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Core differential pressure</t>
+  </si>
+  <si>
+    <t>(510001A3.02) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
+  </si>
+  <si>
+    <t>(233000A2.10) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Refueling bellows seal high flow</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
-  </si>
-  <si>
-    <t>(292008K1.23) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain the necessity for rod pattern exchanges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293007K1.01) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe three mechanisms of heat transfer </t>
-  </si>
-  <si>
-    <t>(293004K1.04) THERMODYNAMIC PROCESS (CFR: 41.14) (NOZZLES) Describe the functions of nozzles in air ejectors</t>
-  </si>
-  <si>
-    <t>(293008K1.23) THERMAL HYDRAULICS (CFR: 41.14) (VIODS AND VOID FRACTION) Define quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295020AA2.07) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Condenser vacuum</t>
-  </si>
-  <si>
-    <t>(217000A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC power loss</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(205000A2.09) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor low water level</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(261000A2.05) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Fan trips</t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(256000A2.14) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292005K1.11) CONTROL RODS (CFR: 41.1) Define deep rods and shallow rods</t>
+  </si>
+  <si>
+    <t>(292006K1.14) FISSION PRODUCT POISONS (CFR: 41.1) Explain the process and reasons for the reactor operator to compensate for the time dependent behavior of xenon-135 concentration in the reactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(293003K1.22) STEAM (CFR: 41.14) Explain the usefulness of steam tables to the control</t>
+  </si>
+  <si>
+    <t>(293010K1.06) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the operational concerns of uncontrolled cooldown</t>
+  </si>
+  <si>
+    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295007AA2.04) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Bypass valve capacity</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295002AA2.01) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Condenser vacuum</t>
+  </si>
+  <si>
+    <t>(205000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System isolation</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
+  </si>
+  <si>
+    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(215001A2.05) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
-  </si>
-  <si>
-    <t>(G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A4</t>
+    <t>A3</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>700000</t>
+    <t>295004</t>
   </si>
   <si>
     <t>295023</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295016</t>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295038</t>
   </si>
   <si>
     <t>295024</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
     <t>295027</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295030</t>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295012</t>
   </si>
   <si>
     <t>295002</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>290001</t>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>215001</t>
   </si>
   <si>
     <t>268000</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>239003</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1684,7 +1684,7 @@
         <v>3.8</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1786,7 +1786,7 @@
         <v>4.1</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2347,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
